--- a/IEA-3.4-130-RWT/IEA_HH140_D178/DLC_1_4/Wind_preperation.xlsx
+++ b/IEA-3.4-130-RWT/IEA_HH140_D178/DLC_1_4/Wind_preperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Optimus2024\IEA-3.4-130-RWT\IEA_HH140_D178\DLC_1_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700895A-8A47-4328-A249-A719AA4A5A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A7838-A670-4D82-A8C1-A11A1AB29C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{BB01B48E-3559-49FD-94B4-E017B99DE7F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB01B48E-3559-49FD-94B4-E017B99DE7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6895,7 +6895,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6973,8 +6973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B080A3CF-4F71-41D8-81CB-4A772A265761}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7656,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7204C4B4-D35C-4EA3-9CAC-EB4CB6F0EF4D}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="54" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>

--- a/IEA-3.4-130-RWT/IEA_HH140_D178/DLC_1_4/Wind_preperation.xlsx
+++ b/IEA-3.4-130-RWT/IEA_HH140_D178/DLC_1_4/Wind_preperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Optimus2024\IEA-3.4-130-RWT\IEA_HH140_D178\DLC_1_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A7838-A670-4D82-A8C1-A11A1AB29C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC88860F-F645-4519-96E1-36CE1747E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB01B48E-3559-49FD-94B4-E017B99DE7F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{BB01B48E-3559-49FD-94B4-E017B99DE7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -313,49 +313,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9577393481938588</c:v>
+                  <c:v>-2.0464174371364381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6393202250021019</c:v>
+                  <c:v>-7.985352151570142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.488589908301073</c:v>
+                  <c:v>-17.235459834461054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.639320225002102</c:v>
+                  <c:v>-28.891275496517881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.999999999999993</c:v>
+                  <c:v>-41.811846689895468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.360679774997898</c:v>
+                  <c:v>-54.732417883273072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.51141009169892</c:v>
+                  <c:v>-66.388233545329882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.360679774997891</c:v>
+                  <c:v>-75.63834122822081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.042260651806146</c:v>
+                  <c:v>-81.577275942654524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,52 +696,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3670761277863477</c:v>
+                  <c:v>8.9770761277863471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.432372542187894</c:v>
+                  <c:v>10.042372542187893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.091610607806452</c:v>
+                  <c:v>11.701610607806451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.182372542187894</c:v>
+                  <c:v>13.792372542187893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.5</c:v>
+                  <c:v>16.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.817627457812108</c:v>
+                  <c:v>18.427627457812108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.908389392193548</c:v>
+                  <c:v>20.518389392193548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.567627457812108</c:v>
+                  <c:v>22.177627457812108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.632923872213652</c:v>
+                  <c:v>23.242923872213652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,49 +1088,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.601786739431339</c:v>
+                  <c:v>-1.660664857091869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.250352911365356</c:v>
+                  <c:v>-6.4801019816228953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.490664470428152</c:v>
+                  <c:v>-13.986551288851054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.613989275001721</c:v>
+                  <c:v>-23.445229220077184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.72727272727272</c:v>
+                  <c:v>-33.930254476908573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.840556179543732</c:v>
+                  <c:v>-44.415279733739972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.963880984117296</c:v>
+                  <c:v>-53.873957664966099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.204192543180099</c:v>
+                  <c:v>-61.380406972194265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.85275871511412</c:v>
+                  <c:v>-66.1998440967253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>-67.86050895381716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>-67.86050895381716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>-67.86050895381716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>-67.86050895381716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>-67.86050895381716</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.454545454545453</c:v>
+                  <c:v>-67.86050895381716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,52 +1471,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>10.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.367076127786348</c:v>
+                  <c:v>10.977076127786347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.432372542187894</c:v>
+                  <c:v>12.042372542187893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.091610607806452</c:v>
+                  <c:v>13.701610607806451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.182372542187892</c:v>
+                  <c:v>15.792372542187893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.5</c:v>
+                  <c:v>18.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.817627457812108</c:v>
+                  <c:v>20.427627457812108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.908389392193548</c:v>
+                  <c:v>22.518389392193548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.567627457812108</c:v>
+                  <c:v>24.177627457812108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.632923872213652</c:v>
+                  <c:v>25.242923872213652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,49 +1833,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.355358010288056</c:v>
+                  <c:v>-1.3972762992660372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.288760155770686</c:v>
+                  <c:v>-5.4523300574955531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.415177628823821</c:v>
+                  <c:v>-11.768224359612187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.134914001924532</c:v>
+                  <c:v>-19.726715465901581</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.69230769230769</c:v>
+                  <c:v>-28.548770816812052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.249701382690851</c:v>
+                  <c:v>-37.370826167722534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.96943775579156</c:v>
+                  <c:v>-45.32931727401192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.095855228844698</c:v>
+                  <c:v>-51.64521157612856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.029257374327337</c:v>
+                  <c:v>-55.700265334358079</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.384615384615387</c:v>
+                  <c:v>-57.097541633624111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.384615384615387</c:v>
+                  <c:v>-57.097541633624111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.384615384615387</c:v>
+                  <c:v>-57.097541633624111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.384615384615387</c:v>
+                  <c:v>-57.097541633624111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.384615384615387</c:v>
+                  <c:v>-57.097541633624111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.384615384615387</c:v>
+                  <c:v>-57.097541633624111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,49 +1984,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9577393481938588</c:v>
+                  <c:v>-2.0464174371364381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6393202250021019</c:v>
+                  <c:v>-7.985352151570142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.488589908301073</c:v>
+                  <c:v>-17.235459834461054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.639320225002102</c:v>
+                  <c:v>-28.891275496517881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.999999999999993</c:v>
+                  <c:v>-41.811846689895468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.360679774997898</c:v>
+                  <c:v>-54.732417883273072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.51141009169892</c:v>
+                  <c:v>-66.388233545329882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.360679774997891</c:v>
+                  <c:v>-75.63834122822081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.042260651806146</c:v>
+                  <c:v>-81.577275942654524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>-83.62369337979095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,52 +2340,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>12.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.367076127786348</c:v>
+                  <c:v>12.977076127786347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.432372542187894</c:v>
+                  <c:v>14.042372542187893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.091610607806452</c:v>
+                  <c:v>15.701610607806451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.182372542187892</c:v>
+                  <c:v>17.792372542187891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.5</c:v>
+                  <c:v>20.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.817627457812108</c:v>
+                  <c:v>22.427627457812108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.908389392193548</c:v>
+                  <c:v>24.518389392193548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.567627457812108</c:v>
+                  <c:v>26.177627457812108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.632923872213652</c:v>
+                  <c:v>27.242923872213652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,52 +2491,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3670761277863477</c:v>
+                  <c:v>8.9770761277863471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.432372542187894</c:v>
+                  <c:v>10.042372542187893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.091610607806452</c:v>
+                  <c:v>11.701610607806451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.182372542187894</c:v>
+                  <c:v>13.792372542187893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.5</c:v>
+                  <c:v>16.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.817627457812108</c:v>
+                  <c:v>18.427627457812108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.908389392193548</c:v>
+                  <c:v>20.518389392193548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.567627457812108</c:v>
+                  <c:v>22.177627457812108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.632923872213652</c:v>
+                  <c:v>23.242923872213652</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24</c:v>
+                  <c:v>23.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,7 +6895,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6909,14 +6909,14 @@
       </c>
       <c r="B1">
         <f>C1-2</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="C1">
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D1">
         <f>C1+2</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -6928,15 +6928,15 @@
       </c>
       <c r="B2">
         <f>720/B1</f>
-        <v>80</v>
+        <v>83.62369337979095</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:D2" si="0">720/C1</f>
-        <v>65.454545454545453</v>
+        <v>67.86050895381716</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>55.384615384615387</v>
+        <v>57.097541633624111</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -6973,8 +6973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B080A3CF-4F71-41D8-81CB-4A772A265761}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C4" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="J4">
         <f>C4+I4</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C5" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J20" si="0">C5+I5</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -7135,11 +7135,11 @@
       </c>
       <c r="C6" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D6" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A6/$A$15))</f>
-        <v>1.9577393481938588</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A6/$A$15))</f>
+        <v>-2.0464174371364381</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>9.3670761277863477</v>
+        <v>8.9770761277863471</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -7171,11 +7171,11 @@
       </c>
       <c r="C7" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D7" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A7/$A$15))</f>
-        <v>7.6393202250021019</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A7/$A$15))</f>
+        <v>-7.985352151570142</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>10.432372542187894</v>
+        <v>10.042372542187893</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="C8" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D8" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A8/$A$15))</f>
-        <v>16.488589908301073</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A8/$A$15))</f>
+        <v>-17.235459834461054</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>12.091610607806452</v>
+        <v>11.701610607806451</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -7243,11 +7243,11 @@
       </c>
       <c r="C9" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D9" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A9/$A$15))</f>
-        <v>27.639320225002102</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A9/$A$15))</f>
+        <v>-28.891275496517881</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>14.182372542187894</v>
+        <v>13.792372542187893</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -7279,11 +7279,11 @@
       </c>
       <c r="C10" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D10" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A10/$A$15))</f>
-        <v>39.999999999999993</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A10/$A$15))</f>
+        <v>-41.811846689895468</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -7315,11 +7315,11 @@
       </c>
       <c r="C11" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D11" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A11/$A$15))</f>
-        <v>52.360679774997898</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A11/$A$15))</f>
+        <v>-54.732417883273072</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>18.817627457812108</v>
+        <v>18.427627457812108</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="C12" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D12" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A12/$A$15))</f>
-        <v>63.51141009169892</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A12/$A$15))</f>
+        <v>-66.388233545329882</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>20.908389392193548</v>
+        <v>20.518389392193548</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -7387,11 +7387,11 @@
       </c>
       <c r="C13" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D13" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A13/$A$15))</f>
-        <v>72.360679774997891</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A13/$A$15))</f>
+        <v>-75.63834122822081</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>22.567627457812108</v>
+        <v>22.177627457812108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -7423,11 +7423,11 @@
       </c>
       <c r="C14" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D14" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A14/$A$15))</f>
-        <v>78.042260651806146</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A14/$A$15))</f>
+        <v>-81.577275942654524</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>23.632923872213652</v>
+        <v>23.242923872213652</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -7459,11 +7459,11 @@
       </c>
       <c r="C15" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D15" s="1">
-        <f>0.5*Tabelle1!$B$2*(1-COS(PI()*A15/$A$15))</f>
-        <v>80</v>
+        <f>-0.5*Tabelle1!$B$2*(1-COS(PI()*A15/$A$15))</f>
+        <v>-83.62369337979095</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -7492,11 +7492,11 @@
       </c>
       <c r="C16" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D16" s="1">
-        <f>Tabelle1!$B$2</f>
-        <v>80</v>
+        <f>D15</f>
+        <v>-83.62369337979095</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
@@ -7524,11 +7524,11 @@
       </c>
       <c r="C17" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D17" s="1">
-        <f>Tabelle1!$B$2</f>
-        <v>80</v>
+        <f t="shared" ref="D17:D20" si="1">D16</f>
+        <v>-83.62369337979095</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
@@ -7556,11 +7556,11 @@
       </c>
       <c r="C18" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D18" s="1">
-        <f>Tabelle1!$B$2</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>-83.62369337979095</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
@@ -7588,11 +7588,11 @@
       </c>
       <c r="C19" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D19" s="1">
-        <f>Tabelle1!$B$2</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>-83.62369337979095</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
@@ -7620,11 +7620,11 @@
       </c>
       <c r="C20" s="1">
         <f>Tabelle1!$B$1</f>
-        <v>9</v>
+        <v>8.61</v>
       </c>
       <c r="D20" s="1">
-        <f>Tabelle1!$B$2</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>-83.62369337979095</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.61</v>
       </c>
     </row>
   </sheetData>
@@ -7657,7 +7657,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="54" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B4" sqref="B4:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C4" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="J4">
         <f>C4+I4</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C5" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J20" si="0">C5+I5</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -7818,11 +7818,11 @@
       </c>
       <c r="C6" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D6" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A6/$A$15))</f>
-        <v>1.601786739431339</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A6/$A$15))</f>
+        <v>-1.660664857091869</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>11.367076127786348</v>
+        <v>10.977076127786347</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -7854,11 +7854,11 @@
       </c>
       <c r="C7" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D7" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A7/$A$15))</f>
-        <v>6.250352911365356</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A7/$A$15))</f>
+        <v>-6.4801019816228953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>12.432372542187894</v>
+        <v>12.042372542187893</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -7890,11 +7890,11 @@
       </c>
       <c r="C8" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D8" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A8/$A$15))</f>
-        <v>13.490664470428152</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A8/$A$15))</f>
+        <v>-13.986551288851054</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>14.091610607806452</v>
+        <v>13.701610607806451</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -7926,11 +7926,11 @@
       </c>
       <c r="C9" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D9" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A9/$A$15))</f>
-        <v>22.613989275001721</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A9/$A$15))</f>
+        <v>-23.445229220077184</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>16.182372542187892</v>
+        <v>15.792372542187893</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -7962,11 +7962,11 @@
       </c>
       <c r="C10" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D10" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A10/$A$15))</f>
-        <v>32.72727272727272</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A10/$A$15))</f>
+        <v>-33.930254476908573</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -7998,11 +7998,11 @@
       </c>
       <c r="C11" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D11" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A11/$A$15))</f>
-        <v>42.840556179543732</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A11/$A$15))</f>
+        <v>-44.415279733739972</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>20.817627457812108</v>
+        <v>20.427627457812108</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -8034,11 +8034,11 @@
       </c>
       <c r="C12" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D12" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A12/$A$15))</f>
-        <v>51.963880984117296</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A12/$A$15))</f>
+        <v>-53.873957664966099</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>22.908389392193548</v>
+        <v>22.518389392193548</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -8070,11 +8070,11 @@
       </c>
       <c r="C13" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D13" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A13/$A$15))</f>
-        <v>59.204192543180099</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A13/$A$15))</f>
+        <v>-61.380406972194265</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>24.567627457812108</v>
+        <v>24.177627457812108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -8106,11 +8106,11 @@
       </c>
       <c r="C14" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D14" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A14/$A$15))</f>
-        <v>63.85275871511412</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A14/$A$15))</f>
+        <v>-66.1998440967253</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>25.632923872213652</v>
+        <v>25.242923872213652</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -8142,11 +8142,11 @@
       </c>
       <c r="C15" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D15" s="1">
-        <f>0.5*Tabelle1!$C$2*(1-COS(PI()*A15/$A$15))</f>
-        <v>65.454545454545453</v>
+        <f>-0.5*Tabelle1!$C$2*(1-COS(PI()*A15/$A$15))</f>
+        <v>-67.86050895381716</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -8175,11 +8175,11 @@
       </c>
       <c r="C16" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D16" s="1">
-        <f>Tabelle1!$C$2</f>
-        <v>65.454545454545453</v>
+        <f>D15</f>
+        <v>-67.86050895381716</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
@@ -8207,11 +8207,11 @@
       </c>
       <c r="C17" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D17" s="1">
-        <f>Tabelle1!$C$2</f>
-        <v>65.454545454545453</v>
+        <f t="shared" ref="D17:D20" si="1">D16</f>
+        <v>-67.86050895381716</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
@@ -8239,11 +8239,11 @@
       </c>
       <c r="C18" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D18" s="1">
-        <f>Tabelle1!$C$2</f>
-        <v>65.454545454545453</v>
+        <f t="shared" si="1"/>
+        <v>-67.86050895381716</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
@@ -8271,11 +8271,11 @@
       </c>
       <c r="C19" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D19" s="1">
-        <f>Tabelle1!$C$2</f>
-        <v>65.454545454545453</v>
+        <f t="shared" si="1"/>
+        <v>-67.86050895381716</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
@@ -8303,11 +8303,11 @@
       </c>
       <c r="C20" s="1">
         <f>Tabelle1!$C$1</f>
-        <v>11</v>
+        <v>10.61</v>
       </c>
       <c r="D20" s="1">
-        <f>Tabelle1!$C$2</f>
-        <v>65.454545454545453</v>
+        <f t="shared" si="1"/>
+        <v>-67.86050895381716</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25.61</v>
       </c>
     </row>
   </sheetData>
@@ -8339,8 +8339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96AF9DC-CC25-493E-BCF3-6885AA0BD03A}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I20"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="C4" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="J4">
         <f>C4+I4</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="C5" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J20" si="0">C5+I5</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -8501,11 +8501,11 @@
       </c>
       <c r="C6" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D6" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A6/$A$15))</f>
-        <v>1.355358010288056</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A6/$A$15))</f>
+        <v>-1.3972762992660372</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>13.367076127786348</v>
+        <v>12.977076127786347</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -8537,11 +8537,11 @@
       </c>
       <c r="C7" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D7" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A7/$A$15))</f>
-        <v>5.288760155770686</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A7/$A$15))</f>
+        <v>-5.4523300574955531</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>14.432372542187894</v>
+        <v>14.042372542187893</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -8573,11 +8573,11 @@
       </c>
       <c r="C8" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D8" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A8/$A$15))</f>
-        <v>11.415177628823821</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A8/$A$15))</f>
+        <v>-11.768224359612187</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>16.091610607806452</v>
+        <v>15.701610607806451</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -8609,11 +8609,11 @@
       </c>
       <c r="C9" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D9" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A9/$A$15))</f>
-        <v>19.134914001924532</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A9/$A$15))</f>
+        <v>-19.726715465901581</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>18.182372542187892</v>
+        <v>17.792372542187891</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -8645,11 +8645,11 @@
       </c>
       <c r="C10" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D10" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A10/$A$15))</f>
-        <v>27.69230769230769</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A10/$A$15))</f>
+        <v>-28.548770816812052</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="C11" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D11" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A11/$A$15))</f>
-        <v>36.249701382690851</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A11/$A$15))</f>
+        <v>-37.370826167722534</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>22.817627457812108</v>
+        <v>22.427627457812108</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -8717,11 +8717,11 @@
       </c>
       <c r="C12" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D12" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A12/$A$15))</f>
-        <v>43.96943775579156</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A12/$A$15))</f>
+        <v>-45.32931727401192</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>24.908389392193548</v>
+        <v>24.518389392193548</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -8753,11 +8753,11 @@
       </c>
       <c r="C13" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D13" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A13/$A$15))</f>
-        <v>50.095855228844698</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A13/$A$15))</f>
+        <v>-51.64521157612856</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>26.567627457812108</v>
+        <v>26.177627457812108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -8789,11 +8789,11 @@
       </c>
       <c r="C14" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D14" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A14/$A$15))</f>
-        <v>54.029257374327337</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A14/$A$15))</f>
+        <v>-55.700265334358079</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>27.632923872213652</v>
+        <v>27.242923872213652</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -8825,11 +8825,11 @@
       </c>
       <c r="C15" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D15" s="1">
-        <f>0.5*Tabelle1!$D$2*(1-COS(PI()*A15/$A$15))</f>
-        <v>55.384615384615387</v>
+        <f>-0.5*Tabelle1!$D$2*(1-COS(PI()*A15/$A$15))</f>
+        <v>-57.097541633624111</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -8858,11 +8858,11 @@
       </c>
       <c r="C16" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D16" s="1">
-        <f>Tabelle1!$D$2</f>
-        <v>55.384615384615387</v>
+        <f>-Tabelle1!$D$2</f>
+        <v>-57.097541633624111</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
@@ -8890,11 +8890,11 @@
       </c>
       <c r="C17" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D17" s="1">
-        <f>Tabelle1!$D$2</f>
-        <v>55.384615384615387</v>
+        <f>-Tabelle1!$D$2</f>
+        <v>-57.097541633624111</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
@@ -8922,11 +8922,11 @@
       </c>
       <c r="C18" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D18" s="1">
-        <f>Tabelle1!$D$2</f>
-        <v>55.384615384615387</v>
+        <f>-Tabelle1!$D$2</f>
+        <v>-57.097541633624111</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
@@ -8954,11 +8954,11 @@
       </c>
       <c r="C19" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D19" s="1">
-        <f>Tabelle1!$D$2</f>
-        <v>55.384615384615387</v>
+        <f>-Tabelle1!$D$2</f>
+        <v>-57.097541633624111</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
@@ -8986,11 +8986,11 @@
       </c>
       <c r="C20" s="1">
         <f>Tabelle1!$D$1</f>
-        <v>13</v>
+        <v>12.61</v>
       </c>
       <c r="D20" s="1">
-        <f>Tabelle1!$D$2</f>
-        <v>55.384615384615387</v>
+        <f>-Tabelle1!$D$2</f>
+        <v>-57.097541633624111</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27.61</v>
       </c>
     </row>
   </sheetData>
